--- a/LevelFourTermOne/Level 4, Term 1.xlsx
+++ b/LevelFourTermOne/Level 4, Term 1.xlsx
@@ -249,10 +249,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -270,6 +270,15 @@
       <c r="C1" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D1" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -297,6 +306,15 @@
       <c r="C4" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -308,6 +326,15 @@
       <c r="C5" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -319,6 +346,15 @@
       <c r="C6" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -330,6 +366,15 @@
       <c r="C7" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -357,6 +402,15 @@
       <c r="C10" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -376,6 +430,15 @@
       <c r="C12" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -387,6 +450,15 @@
       <c r="C13" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -430,6 +502,15 @@
       <c r="C18" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -449,6 +530,15 @@
       <c r="C20" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -460,6 +550,15 @@
       <c r="C21" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -471,6 +570,15 @@
       <c r="C22" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -482,6 +590,15 @@
       <c r="C23" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -493,6 +610,15 @@
       <c r="C24" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -512,6 +638,15 @@
       <c r="C26" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D26" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -523,6 +658,15 @@
       <c r="C27" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D27" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -534,6 +678,15 @@
       <c r="C28" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -545,6 +698,15 @@
       <c r="C29" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D29" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -556,6 +718,15 @@
       <c r="C30" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D30" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -567,6 +738,15 @@
       <c r="C31" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D31" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -578,6 +758,15 @@
       <c r="C32" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D32" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -621,8 +810,17 @@
       <c r="C37" s="0" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>37</v>
       </c>
@@ -631,6 +829,15 @@
       </c>
       <c r="C38" s="0" t="n">
         <v>100</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
